--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1708624.908809224</v>
+        <v>1812804.543260295</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>76.97130521239211</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>118.533382304275</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>262.0921899533158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>303.0256179619647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>59.32996291532975</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2205257453331</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.06047827574901</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>109.1449082774059</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>50.04052206184378</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>197.2429934197943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.279871084294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>53.30076123484837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>131.4244133395508</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>97.22826981530201</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.05846343488115</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>187.792060649081</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>153.4164748164159</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>127.5379405516757</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>116.287325111933</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922647</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899614</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3137.566359992436</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2806.503472648865</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201686</v>
@@ -4437,13 +4439,13 @@
         <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1526.04751747661</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1236.944650602253</v>
+        <v>1159.272005430943</v>
       </c>
       <c r="V4" t="n">
-        <v>982.2601623963666</v>
+        <v>904.587517225056</v>
       </c>
       <c r="W4" t="n">
-        <v>982.2601623963666</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>754.2706114983492</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.4780323548191</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1896.503151925172</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0144869816389</v>
+        <v>504.1638263336251</v>
       </c>
       <c r="C7" t="n">
-        <v>201.078304053732</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="D7" t="n">
-        <v>201.078304053732</v>
+        <v>185.1110039933825</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>185.1110039933825</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816389</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>927.3259024719448</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>927.3259024719448</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>516.3399976823373</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3164.769171255616</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3164.769171255616</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3164.769171255616</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2812.000515985501</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2438.534757724422</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.280305378586</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.280305378586</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,10 +5299,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,16 +5530,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926978</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481585</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625314</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>450.3671302240731</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5701,22 +5703,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6208,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481584</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925226</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925226</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="32">
@@ -6692,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2878.798005073648</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4562.006949821143</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4342.405484844085</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>4053.330258188283</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3798.645769982396</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3509.228599945435</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3281.239049047418</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>3060.446469903888</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>4323.470669748392</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,16 +7429,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263522</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356153</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232795</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408864</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.811296842976</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378157</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.51492517227</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135309</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237292</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093762</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>92.12028678808286</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>34.09972495271808</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>121.3563835367928</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>37.9175947399562</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>13.83034628221196</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.4883454499689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25840,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992827</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878051.6420719663</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314476</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314477</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.0670231448</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537392</v>
+        <v>-972829.5586537393</v>
       </c>
       <c r="C6" t="n">
         <v>355915.1870738532</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738536</v>
+        <v>355915.1870738534</v>
       </c>
       <c r="E6" t="n">
-        <v>107121.9309076982</v>
+        <v>107121.930907698</v>
       </c>
       <c r="F6" t="n">
+        <v>432534.3927150532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>432534.3927150532</v>
+      </c>
+      <c r="H6" t="n">
+        <v>432534.3927150536</v>
+      </c>
+      <c r="I6" t="n">
         <v>432534.3927150535</v>
-      </c>
-      <c r="G6" t="n">
-        <v>432534.3927150535</v>
-      </c>
-      <c r="H6" t="n">
-        <v>432534.3927150534</v>
-      </c>
-      <c r="I6" t="n">
-        <v>432534.3927150532</v>
       </c>
       <c r="J6" t="n">
         <v>215003.1903177758</v>
@@ -26549,19 +26551,19 @@
         <v>432534.3927150533</v>
       </c>
       <c r="L6" t="n">
-        <v>432534.3927150537</v>
+        <v>432534.3927150533</v>
       </c>
       <c r="M6" t="n">
-        <v>347479.3647795417</v>
+        <v>347479.3647795416</v>
       </c>
       <c r="N6" t="n">
-        <v>432534.3927150537</v>
+        <v>432534.3927150533</v>
       </c>
       <c r="O6" t="n">
-        <v>432534.3927150537</v>
+        <v>432534.3927150532</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150538</v>
+        <v>432534.3927150531</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>174.0238667465099</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.0155669718942</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>24.11964825229711</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>62.24727380904284</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>289.9110058020833</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.21343690123609</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>124.3605697471822</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>301.7768173760475</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>153.8774480777764</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.34165993230053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29041,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -30511,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.207266606532238e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30630,7 +30632,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786837</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786837</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N45" t="n">
-        <v>764.2478901092629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342392</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342392</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N45" t="n">
-        <v>632.9061780259296</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1812804.543260295</v>
+        <v>1808791.933246303</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814261</v>
+        <v>90.505191218824</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>262.0921899533158</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>128.4038356853009</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.4367868126739</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>59.32996291532975</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>21.06047827574901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>10.20389322926701</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>109.1449082774059</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>168.5177247035044</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.4244133395508</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.22826981530201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>71.05846343488115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>172.026033500079</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.7072979240953</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>187.792060649081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>153.4164748164159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>34.2105855891487</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1159.272005430943</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>904.587517225056</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>615.1703471880954</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>615.1703471880954</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.3777680445653</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.1638263336251</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C7" t="n">
-        <v>335.2276434057183</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D7" t="n">
-        <v>185.1110039933825</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E7" t="n">
-        <v>185.1110039933825</v>
+        <v>223.7090267879393</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>906.604870307395</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.8122911638649</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.591601078695</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>927.3259024719448</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>927.3259024719448</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>516.3399976823373</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753273</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>450.3671302240731</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.5010142286973</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7140,7 +7140,7 @@
         <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1099.149479058937</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4323.470669748392</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4034.395443092589</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>4034.395443092589</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.09972495271808</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.3563835367928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.000252501565598</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>37.9175947399562</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>13.83034628221196</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
@@ -26349,10 +26349,10 @@
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551203</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314479</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314483</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90354.06702314476</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26438,7 +26438,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26450,7 +26450,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537393</v>
+        <v>-972829.5586537392</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738532</v>
+        <v>355915.1870738534</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738534</v>
+        <v>355915.1870738536</v>
       </c>
       <c r="E6" t="n">
-        <v>107121.930907698</v>
+        <v>106774.5516533412</v>
       </c>
       <c r="F6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606966</v>
       </c>
       <c r="G6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606964</v>
       </c>
       <c r="H6" t="n">
-        <v>432534.3927150536</v>
+        <v>432187.0134606965</v>
       </c>
       <c r="I6" t="n">
-        <v>432534.3927150535</v>
+        <v>432187.0134606966</v>
       </c>
       <c r="J6" t="n">
-        <v>215003.1903177758</v>
+        <v>214655.8110634191</v>
       </c>
       <c r="K6" t="n">
-        <v>432534.3927150533</v>
+        <v>432187.0134606963</v>
       </c>
       <c r="L6" t="n">
-        <v>432534.3927150533</v>
+        <v>432187.0134606965</v>
       </c>
       <c r="M6" t="n">
-        <v>347479.3647795416</v>
+        <v>347131.9855251844</v>
       </c>
       <c r="N6" t="n">
-        <v>432534.3927150533</v>
+        <v>432187.0134606966</v>
       </c>
       <c r="O6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606964</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150531</v>
+        <v>432187.0134606963</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803264</v>
+        <v>279.225909459645</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>24.11964825229711</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>158.1191626512901</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>54.2462548080091</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>289.9110058020833</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>124.3605697471822</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>86.14852718057108</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>301.7768173760475</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.40024543611574</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>512.9101366533182</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N42" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>528.7932908500043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>370.3138922088737</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>386.659256927986</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1808791.933246303</v>
+        <v>1810552.463549087</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>319.5415222624729</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>90.505191218824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>76.93628836873181</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>128.4038356853009</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>38.18739105194145</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4367868126739</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.20389322926701</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>163.2284689926434</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.5177247035044</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>84.82420463792828</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3113851298087</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>47.33239976701595</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.7072979240953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>34.2105855891487</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>79.05856366754516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.36569740310371</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.556001111121</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1169.327103036486</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690.674942710575</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>521.7387597826681</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>371.6221203703324</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>223.7090267879393</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>76.8190792900289</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>76.8190792900289</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>76.8190792900289</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1259.134349835663</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1004.449861629776</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1004.449861629776</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408147</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.3234075408147</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3155.385897666236</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2407.960931088798</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2188.359466111739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5600,16 +5600,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5700,22 +5700,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.222762528164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
         <v>1051.338974243769</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491255</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367897</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.0218491516696</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>210.4595134598044</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>615.644930552589</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7499,7 +7499,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
         <v>1577.52840832642</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>66.09406519747952</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>171.2522535850788</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>106.0841272570752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.7734165143921</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
@@ -26325,37 +26325,37 @@
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551203</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537392</v>
+        <v>-972829.5586537394</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738534</v>
+        <v>355915.1870738533</v>
       </c>
       <c r="D6" t="n">
         <v>355915.1870738536</v>
       </c>
       <c r="E6" t="n">
-        <v>106774.5516533412</v>
+        <v>107087.1929822623</v>
       </c>
       <c r="F6" t="n">
-        <v>432187.0134606966</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="G6" t="n">
-        <v>432187.0134606964</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="H6" t="n">
-        <v>432187.0134606965</v>
+        <v>432499.6547896173</v>
       </c>
       <c r="I6" t="n">
-        <v>432187.0134606966</v>
+        <v>432499.6547896179</v>
       </c>
       <c r="J6" t="n">
-        <v>214655.8110634191</v>
+        <v>214968.4523923399</v>
       </c>
       <c r="K6" t="n">
-        <v>432187.0134606963</v>
+        <v>432499.6547896174</v>
       </c>
       <c r="L6" t="n">
-        <v>432187.0134606965</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="M6" t="n">
-        <v>347131.9855251844</v>
+        <v>347444.626854106</v>
       </c>
       <c r="N6" t="n">
-        <v>432187.0134606966</v>
+        <v>432499.6547896178</v>
       </c>
       <c r="O6" t="n">
-        <v>432187.0134606964</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="P6" t="n">
-        <v>432187.0134606963</v>
+        <v>432499.6547896173</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>35.14151935821002</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>279.225909459645</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>102.8956918132055</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>158.1191626512901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>327.0855007190661</v>
       </c>
       <c r="D5" t="n">
-        <v>54.2462548080091</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>86.14852718057108</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>122.9833692129695</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>35.40024543611574</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>201.3876335676846</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>518.4394551593577</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>376.3054212373395</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
